--- a/Projektmgmt/Grobplanung (1).xlsx
+++ b/Projektmgmt/Grobplanung (1).xlsx
@@ -1193,7 +1193,7 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.796875" defaultRowHeight="13.8"/>
   <cols>
     <col min="1" max="1" width="16.8984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.3984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.59765625" customWidth="1"/>
     <col min="3" max="26" width="2.8984375" customWidth="1"/>
   </cols>
   <sheetData>
